--- a/Дом Питомца.xlsx
+++ b/Дом Питомца.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3ABXO3\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Skillfactory\PublicRep\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="21">
   <si>
     <t>Вид животного</t>
   </si>
@@ -354,13 +354,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z997"/>
+  <dimension ref="A1:Z996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -427,7 +427,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="2" t="str">
-        <f t="shared" ref="F2:F43" si="0">CONCATENATE("curl --location --request GET ", "'", "http://130.193.37.179/api/pet/?species__name=",B2,"&amp;breed__code=",C2,"&amp;gender__code=",D2,"&amp;age=",E2,"'")</f>
+        <f t="shared" ref="F2:F42" si="0">CONCATENATE("curl --location --request GET ", "'", "http://130.193.37.179/api/pet/?species__name=",B2,"&amp;breed__code=",C2,"&amp;gender__code=",D2,"&amp;age=",E2,"'")</f>
         <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=cat&amp;breed__code=бенгальская&amp;gender__code=fem&amp;age=2'</v>
       </c>
       <c r="G2" s="2"/>
@@ -494,26 +494,28 @@
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=cow&amp;breed__code=алабай&amp;gender__code=fem&amp;age=3'</v>
+        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=cow&amp;breed__code=бенгальская&amp;gender__code=female&amp;age=4'</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="H4" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -535,28 +537,26 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=cow&amp;breed__code=бенгальская&amp;gender__code=female&amp;age=4'</v>
+        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=cow&amp;breed__code=индийский&amp;gender__code=girl&amp;age=5'</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -578,23 +578,23 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=cow&amp;breed__code=индийский&amp;gender__code=girl&amp;age=5'</v>
+        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=cow&amp;breed__code=корелла&amp;gender__code=girl&amp;age=0'</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -619,23 +619,23 @@
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="D7" s="2">
+        <v>234</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
       </c>
       <c r="F7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=cow&amp;breed__code=корелла&amp;gender__code=girl&amp;age=0'</v>
+        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=cow&amp;breed__code=немецкая овчарка&amp;gender__code=234&amp;age=0'</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -660,23 +660,23 @@
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2">
         <v>234</v>
       </c>
       <c r="E8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=cow&amp;breed__code=немецкая овчарка&amp;gender__code=234&amp;age=0'</v>
+        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=cow&amp;breed__code=абиссинская&amp;gender__code=234&amp;age=1'</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -701,7 +701,7 @@
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>14</v>
@@ -709,15 +709,15 @@
       <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="2">
-        <v>234</v>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="E9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=cow&amp;breed__code=абиссинская&amp;gender__code=234&amp;age=1'</v>
+        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=cow&amp;breed__code=абиссинская&amp;gender__code=воу&amp;age=2'</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -742,23 +742,23 @@
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E10" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=cow&amp;breed__code=абиссинская&amp;gender__code=воу&amp;age=2'</v>
+        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=homyak&amp;breed__code=бенгальская&amp;gender__code=girl&amp;age=0'</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -783,13 +783,13 @@
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
@@ -799,7 +799,7 @@
       </c>
       <c r="F11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=homyak&amp;breed__code=бенгальская&amp;gender__code=girl&amp;age=0'</v>
+        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=homyak&amp;breed__code=индийский&amp;gender__code=girl&amp;age=0'</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -824,23 +824,23 @@
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="D12" s="2">
+        <v>234</v>
       </c>
       <c r="E12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=homyak&amp;breed__code=индийский&amp;gender__code=girl&amp;age=0'</v>
+        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=homyak&amp;breed__code=корелла&amp;gender__code=234&amp;age=1'</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -865,23 +865,23 @@
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D13" s="2">
         <v>234</v>
       </c>
       <c r="E13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=homyak&amp;breed__code=корелла&amp;gender__code=234&amp;age=1'</v>
+        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=homyak&amp;breed__code=немецкая овчарка&amp;gender__code=234&amp;age=2'</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -906,23 +906,23 @@
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="2">
-        <v>234</v>
+        <v>15</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="E14" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=homyak&amp;breed__code=немецкая овчарка&amp;gender__code=234&amp;age=2'</v>
+        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=homyak&amp;breed__code=абиссинская&amp;gender__code=воу&amp;age=3'</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -947,7 +947,7 @@
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>16</v>
@@ -956,14 +956,14 @@
         <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E15" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=homyak&amp;breed__code=абиссинская&amp;gender__code=воу&amp;age=3'</v>
+        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=homyak&amp;breed__code=абиссинская&amp;gender__code=fem&amp;age=4'</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -988,23 +988,23 @@
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E16" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=homyak&amp;breed__code=абиссинская&amp;gender__code=fem&amp;age=4'</v>
+        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=homyak&amp;breed__code=алабай&amp;gender__code=female&amp;age=5'</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1029,23 +1029,23 @@
     </row>
     <row r="17" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="D17" s="2">
+        <v>234</v>
       </c>
       <c r="E17" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=homyak&amp;breed__code=алабай&amp;gender__code=female&amp;age=5'</v>
+        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=loshad&amp;breed__code=индийский&amp;gender__code=234&amp;age=2'</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1070,23 +1070,23 @@
     </row>
     <row r="18" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D18" s="2">
         <v>234</v>
       </c>
       <c r="E18" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=loshad&amp;breed__code=индийский&amp;gender__code=234&amp;age=2'</v>
+        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=loshad&amp;breed__code=корелла&amp;gender__code=234&amp;age=3'</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -1111,23 +1111,23 @@
     </row>
     <row r="19" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="2">
-        <v>234</v>
+        <v>13</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="E19" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=loshad&amp;breed__code=корелла&amp;gender__code=234&amp;age=3'</v>
+        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=loshad&amp;breed__code=немецкая овчарка&amp;gender__code=воу&amp;age=4'</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1152,23 +1152,23 @@
     </row>
     <row r="20" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E20" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=loshad&amp;breed__code=немецкая овчарка&amp;gender__code=воу&amp;age=4'</v>
+        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=loshad&amp;breed__code=абиссинская&amp;gender__code=fem&amp;age=5'</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>17</v>
@@ -1202,14 +1202,14 @@
         <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E21" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=loshad&amp;breed__code=абиссинская&amp;gender__code=fem&amp;age=5'</v>
+        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=loshad&amp;breed__code=абиссинская&amp;gender__code=female&amp;age=0'</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1234,23 +1234,23 @@
     </row>
     <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
       </c>
       <c r="F22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=loshad&amp;breed__code=абиссинская&amp;gender__code=female&amp;age=0'</v>
+        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=loshad&amp;breed__code=алабай&amp;gender__code=girl&amp;age=0'</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1275,23 +1275,23 @@
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=loshad&amp;breed__code=алабай&amp;gender__code=girl&amp;age=0'</v>
+        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=loshad&amp;breed__code=бенгальская&amp;gender__code=girl&amp;age=1'</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1316,23 +1316,23 @@
     </row>
     <row r="24" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E24" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F24" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=loshad&amp;breed__code=бенгальская&amp;gender__code=girl&amp;age=1'</v>
+        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=кот&amp;breed__code=корелла&amp;gender__code=воу&amp;age=5'</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -1357,23 +1357,23 @@
     </row>
     <row r="25" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E25" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F25" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=кот&amp;breed__code=корелла&amp;gender__code=воу&amp;age=5'</v>
+        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=кот&amp;breed__code=немецкая овчарка&amp;gender__code=fem&amp;age=0'</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -1398,23 +1398,23 @@
     </row>
     <row r="26" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
       </c>
       <c r="F26" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=кот&amp;breed__code=немецкая овчарка&amp;gender__code=fem&amp;age=0'</v>
+        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=кот&amp;breed__code=абиссинская&amp;gender__code=female&amp;age=0'</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="27" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>18</v>
@@ -1448,14 +1448,14 @@
         <v>15</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=кот&amp;breed__code=абиссинская&amp;gender__code=female&amp;age=0'</v>
+        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=кот&amp;breed__code=абиссинская&amp;gender__code=girl&amp;age=1'</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -1480,23 +1480,23 @@
     </row>
     <row r="28" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E28" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=кот&amp;breed__code=абиссинская&amp;gender__code=girl&amp;age=1'</v>
+        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=кот&amp;breed__code=алабай&amp;gender__code=girl&amp;age=2'</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -1521,23 +1521,23 @@
     </row>
     <row r="29" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="D29" s="2">
+        <v>234</v>
       </c>
       <c r="E29" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=кот&amp;breed__code=алабай&amp;gender__code=girl&amp;age=2'</v>
+        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=кот&amp;breed__code=бенгальская&amp;gender__code=234&amp;age=3'</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -1562,23 +1562,23 @@
     </row>
     <row r="30" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2">
         <v>234</v>
       </c>
       <c r="E30" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F30" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=кот&amp;breed__code=бенгальская&amp;gender__code=234&amp;age=3'</v>
+        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=кот&amp;breed__code=индийский&amp;gender__code=234&amp;age=4'</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -1603,23 +1603,23 @@
     </row>
     <row r="31" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="2">
-        <v>234</v>
+        <v>13</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E31" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F31" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=кот&amp;breed__code=индийский&amp;gender__code=234&amp;age=4'</v>
+        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=popygay&amp;breed__code=немецкая овчарка&amp;gender__code=female&amp;age=1'</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -1644,23 +1644,23 @@
     </row>
     <row r="32" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E32" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=popygay&amp;breed__code=немецкая овчарка&amp;gender__code=female&amp;age=1'</v>
+        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=popygay&amp;breed__code=абиссинская&amp;gender__code=girl&amp;age=2'</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="33" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>19</v>
@@ -1697,11 +1697,11 @@
         <v>12</v>
       </c>
       <c r="E33" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=popygay&amp;breed__code=абиссинская&amp;gender__code=girl&amp;age=2'</v>
+        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=popygay&amp;breed__code=абиссинская&amp;gender__code=girl&amp;age=3'</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -1726,23 +1726,23 @@
     </row>
     <row r="34" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="D34" s="2">
+        <v>234</v>
       </c>
       <c r="E34" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F34" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=popygay&amp;breed__code=абиссинская&amp;gender__code=girl&amp;age=3'</v>
+        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=popygay&amp;breed__code=алабай&amp;gender__code=234&amp;age=4'</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -1767,23 +1767,23 @@
     </row>
     <row r="35" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D35" s="2">
         <v>234</v>
       </c>
       <c r="E35" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F35" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=popygay&amp;breed__code=алабай&amp;gender__code=234&amp;age=4'</v>
+        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=popygay&amp;breed__code=бенгальская&amp;gender__code=234&amp;age=5'</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -1808,23 +1808,23 @@
     </row>
     <row r="36" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="2">
-        <v>234</v>
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="E36" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F36" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=popygay&amp;breed__code=бенгальская&amp;gender__code=234&amp;age=5'</v>
+        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=popygay&amp;breed__code=индийский&amp;gender__code=воу&amp;age=0'</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -1849,23 +1849,23 @@
     </row>
     <row r="37" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E37" s="2">
         <v>0</v>
       </c>
       <c r="F37" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=popygay&amp;breed__code=индийский&amp;gender__code=воу&amp;age=0'</v>
+        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=popygay&amp;breed__code=корелла&amp;gender__code=fem&amp;age=0'</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -1890,23 +1890,23 @@
     </row>
     <row r="38" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="D38" s="2">
+        <v>234</v>
       </c>
       <c r="E38" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F38" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=popygay&amp;breed__code=корелла&amp;gender__code=fem&amp;age=0'</v>
+        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=cat&amp;breed__code=абиссинская&amp;gender__code=234&amp;age=5'</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -1931,23 +1931,23 @@
     </row>
     <row r="39" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="2">
-        <v>234</v>
+        <v>7</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="E39" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F39" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=cat&amp;breed__code=абиссинская&amp;gender__code=234&amp;age=5'</v>
+        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=cat&amp;breed__code=бенгальская&amp;gender__code=воу&amp;age=0'</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -1972,23 +1972,23 @@
     </row>
     <row r="40" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=cat&amp;breed__code=бенгальская&amp;gender__code=воу&amp;age=0'</v>
+        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=cat&amp;breed__code=индийский&amp;gender__code=fem&amp;age=1'</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -2013,23 +2013,23 @@
     </row>
     <row r="41" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E41" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=cat&amp;breed__code=индийский&amp;gender__code=fem&amp;age=1'</v>
+        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=cat&amp;breed__code=корелла&amp;gender__code=female&amp;age=2'</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -2054,23 +2054,23 @@
     </row>
     <row r="42" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E42" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F42" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=cat&amp;breed__code=корелла&amp;gender__code=female&amp;age=2'</v>
+        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=cat&amp;breed__code=немецкая овчарка&amp;gender__code=girl&amp;age=3'</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -2094,49 +2094,9 @@
       <c r="Z42" s="2"/>
     </row>
     <row r="43" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>45</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="2">
-        <v>3</v>
-      </c>
-      <c r="F43" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>curl --location --request GET 'http://130.193.37.179/api/pet/?species__name=cat&amp;breed__code=немецкая овчарка&amp;gender__code=girl&amp;age=3'</v>
-      </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
-      <c r="V43" s="2"/>
-      <c r="W43" s="2"/>
-      <c r="X43" s="2"/>
-      <c r="Y43" s="2"/>
-      <c r="Z43" s="2"/>
-    </row>
-    <row r="44" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F44" s="2"/>
-    </row>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3089,7 +3049,6 @@
     <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
